--- a/Practica4/Practica4.xlsx
+++ b/Practica4/Practica4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intelFPGA_lite\OyAC\Lab\Practica4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC49895B-405D-4127-95CD-9859F0849996}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF328AF5-5F00-40ED-AA34-AE9BFB59ADC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,15 +254,6 @@
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -325,15 +316,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,6 +379,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,13 +421,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>76202</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>18832</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -459,8 +459,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12268202" y="1161832"/>
-          <a:ext cx="3076574" cy="3048218"/>
+          <a:off x="12268201" y="123740"/>
+          <a:ext cx="4124323" cy="4086310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -747,534 +747,534 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="9.140625" style="25"/>
-    <col min="8" max="8" width="9.140625" style="37"/>
-    <col min="9" max="9" width="9.140625" style="38"/>
+    <col min="7" max="7" width="9.140625" style="22"/>
+    <col min="8" max="8" width="9.140625" style="31"/>
+    <col min="9" max="9" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
-        <v>1</v>
-      </c>
-      <c r="I4" s="31">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="48">
-        <v>1</v>
-      </c>
-      <c r="N4" s="10">
-        <v>1</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0</v>
-      </c>
-      <c r="P4" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6">
-        <v>1</v>
-      </c>
-      <c r="S4" s="6">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="42">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
-        <v>1</v>
-      </c>
-      <c r="I5" s="31">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="30">
-        <v>0</v>
-      </c>
-      <c r="O5" s="30">
-        <v>0</v>
-      </c>
-      <c r="P5" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="24">
+        <v>0</v>
+      </c>
+      <c r="O5" s="24">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0</v>
-      </c>
-      <c r="I6" s="31">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0</v>
-      </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="30">
-        <v>1</v>
-      </c>
-      <c r="P6" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <v>1</v>
+      </c>
+      <c r="P6" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>1</v>
-      </c>
-      <c r="I7" s="31">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="24">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>0</v>
-      </c>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>1</v>
-      </c>
-      <c r="S8" s="6">
-        <v>1</v>
-      </c>
-      <c r="T8" s="6">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
